--- a/2.13.Practical-example.Descriptive-statistics-exercise.xlsx
+++ b/2.13.Practical-example.Descriptive-statistics-exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Downloads/The Data Science Course 2021 - All Resources/Part_3_Statistics/S16_L94/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/Excel Work/365-Data-Science-Course-Excel-Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74D9717-B90C-534F-B4CF-9C453726649A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC9C913-1F5C-F443-893C-67E4A8FE387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="10300" windowWidth="23040" windowHeight="8120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="1600" windowWidth="23040" windowHeight="15100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="365RE" sheetId="1" r:id="rId1"/>
@@ -23,22 +23,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'365RE'!$A$5:$AM$926</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'365RE'!$I$6:$I$272</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'365RE'!$I$5</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Tasks 6,7'!$D$14:$D$21</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Tasks 6,7'!$L$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'365RE'!$I$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'365RE'!$I$6:$I$272</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'365RE'!$I$6:$I$272</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Tasks 6,7'!$L$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Tasks 6,7'!$C$14:$C$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Tasks 6,7'!$D$13</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Tasks 6,7'!$D$14:$D$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Tasks 6,7'!$L$12</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Tasks 6,7'!$C$14:$C$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Tasks 6,7'!$D$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Tasks 6,7'!$C$14:$C$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Tasks 6,7'!$D$13</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Tasks 6,7'!$D$14:$D$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -58,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="582">
   <si>
     <t>Office</t>
   </si>
@@ -1830,15 +1824,6 @@
     </r>
   </si>
   <si>
-    <t>Categorical ; Ordinal</t>
-  </si>
-  <si>
-    <t>Categorical ; Nominal</t>
-  </si>
-  <si>
-    <t>Numerical, Discrete ;  Ratio</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -1921,6 +1906,15 @@
   </si>
   <si>
     <t>~ should mention that the skewness means properties are relatively cheap with a tiny portion being more expensive (context of right skewness in price)</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Numerical; Discrete</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2151,15 +2145,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4246,7 +4239,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4284,7 +4277,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{E4403546-8935-854A-95CB-836CC87417FB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Price</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4315,7 +4308,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4378,10 +4371,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4419,7 +4412,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{90AF6714-B33B-D44C-80D9-4DA0B2FD2AEC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Count of Country</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6701,8 +6694,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="267368" y="1443790"/>
-              <a:ext cx="4601342" cy="2808005"/>
+              <a:off x="272715" y="1489243"/>
+              <a:ext cx="4608027" cy="2909605"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6779,8 +6772,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5253790" y="1430420"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5270501" y="1475873"/>
+              <a:ext cx="4600073" cy="2844800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6817,16 +6810,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6905,8 +6898,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6604000" y="1320800"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6845300" y="1325033"/>
+              <a:ext cx="4542367" cy="2802467"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7561,7 +7554,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6205ED5-933C-3048-A0EB-EF68318529E8}" name="PivotTable6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6205ED5-933C-3048-A0EB-EF68318529E8}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C13:F23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -7661,9 +7654,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7701,7 +7694,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7807,7 +7800,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7949,7 +7942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7959,9 +7952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA920"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O281" sqref="O281"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC285" sqref="AC285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8011,35 +8004,35 @@
       <c r="W3" s="14"/>
     </row>
     <row r="4" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>528</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="L4" s="37" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="L4" s="40" t="s">
         <v>529</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
     </row>
     <row r="5" spans="2:27" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
@@ -26766,7 +26759,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H275" s="2">
         <f>AVERAGE(I6:$I$272)</f>
@@ -26800,7 +26793,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H276" s="2">
         <f>MEDIAN(I6:$I$272)</f>
@@ -26812,7 +26805,7 @@
       <c r="L276" s="8"/>
       <c r="M276" s="8"/>
       <c r="N276" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="O276" s="3">
         <f>_xlfn.COVARIANCE.P(H6:H272, I6:I272)</f>
@@ -26839,7 +26832,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H277" s="2">
         <f>MODE(I6:$I$272)</f>
@@ -26851,7 +26844,7 @@
       <c r="L277" s="8"/>
       <c r="M277" s="8"/>
       <c r="N277" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="O277" s="3">
         <f>CORREL(H6:H272, I6:I272)</f>
@@ -26878,7 +26871,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H278" s="2">
         <f>_xlfn.SKEW.P(I6:$I$272)</f>
@@ -26912,7 +26905,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H279" s="2">
         <f>_xlfn.VAR.P(I6:$I$272)</f>
@@ -26946,7 +26939,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H280" s="2">
         <f>_xlfn.STDEV.P(I6:$I$272)</f>
@@ -45576,7 +45569,7 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -45608,24 +45601,27 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="G5" s="27" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="23"/>
       <c r="C6" s="25"/>
       <c r="D6" s="24"/>
+      <c r="G6" s="27" t="s">
+        <v>580</v>
+      </c>
       <c r="H6" s="27" t="s">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -45656,10 +45652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988EDBF6-8135-42D7-A181-4E7F0B86819A}">
-  <dimension ref="B1:P11"/>
+  <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" zoomScale="94" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -45671,55 +45667,55 @@
     <col min="5" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B1" s="21" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="22" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="28" t="s">
         <v>542</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="36" t="s">
         <v>547</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>543</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="23"/>
       <c r="C8" s="25"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="P10" s="27" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="P11" s="27" t="s">
-        <v>557</v>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="27" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C34" s="27" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -45734,10 +45730,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC30D9D-B362-4C01-82F7-1CA90CE5A76C}">
-  <dimension ref="B1:L13"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -45749,34 +45745,34 @@
     <col min="5" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:8" ht="16" x14ac:dyDescent="0.15">
       <c r="B1" s="21" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="22" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="28"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="L11" s="27" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="L13" s="27" t="s">
-        <v>580</v>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H10" s="27" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H12" s="27" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -45793,8 +45789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D6B83C-E8B8-4DA4-8E51-8D3B78A1B9E1}">
   <dimension ref="B1:J169"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -45857,164 +45853,164 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C13" s="39" t="s">
-        <v>554</v>
+      <c r="C13" s="37" t="s">
+        <v>551</v>
       </c>
       <c r="D13" t="s">
+        <v>556</v>
+      </c>
+      <c r="E13" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" t="s">
         <v>559</v>
       </c>
-      <c r="E13" t="s">
-        <v>561</v>
-      </c>
-      <c r="F13" t="s">
-        <v>562</v>
-      </c>
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14">
         <v>177</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="39">
         <v>0.90769230769230769</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <v>0.90769230769230769</v>
       </c>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="39">
         <v>3.5897435897435895E-2</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="39">
         <v>0.94358974358974357</v>
       </c>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="39">
         <v>2.0512820512820513E-2</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="39">
         <v>0.96410256410256412</v>
       </c>
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="3:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="39">
         <v>1.0256410256410256E-2</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="39">
         <v>0.97435897435897434</v>
       </c>
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="3:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="39">
         <v>1.0256410256410256E-2</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="39">
         <v>0.98461538461538467</v>
       </c>
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="3:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="39">
         <v>5.1282051282051282E-3</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="39">
         <v>0.98974358974358978</v>
       </c>
       <c r="J19" s="26"/>
     </row>
     <row r="20" spans="3:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="39">
         <v>5.1282051282051282E-3</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="39">
         <v>0.99487179487179489</v>
       </c>
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="3:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="39">
         <v>5.1282051282051282E-3</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="39">
         <v>1</v>
       </c>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="3:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C22" s="40" t="s">
-        <v>560</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="41">
+      <c r="C22" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" s="39">
         <v>0</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="39">
         <v>1</v>
       </c>
       <c r="J22" s="26"/>
     </row>
     <row r="23" spans="3:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C23" s="40" t="s">
-        <v>555</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="C23" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="D23">
         <v>195</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="39">
         <v>1</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="39"/>
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="3:10" ht="15" x14ac:dyDescent="0.2">
@@ -46488,10 +46484,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:P189"/>
+  <dimension ref="B1:H189"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -46500,119 +46496,121 @@
     <col min="2" max="2" width="7" style="27" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="27"/>
+    <col min="5" max="5" width="8.83203125" style="27"/>
+    <col min="6" max="6" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:8" ht="16" x14ac:dyDescent="0.15">
       <c r="B1" s="21" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="22" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="22" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="27" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="E8" s="27" t="s">
+    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="27">
+        <v>281171.90150112362</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="27">
+        <v>249075.6568</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="C10" s="27">
+        <v>460001.25599999994</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="F8" s="27">
-        <v>281171.90150112362</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27" t="s">
+      <c r="C11" s="27">
+        <v>1.0898479220340611</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="E9" s="27" t="s">
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="F9" s="27">
-        <v>249075.6568</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27" t="s">
+      <c r="C12" s="27">
+        <v>7912471567.2096815</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="E10" s="27" t="s">
+    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="F10" s="27">
-        <v>460001.25599999994</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27" t="s">
+      <c r="C13" s="27">
+        <v>88952.074552590857</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="E11" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="F11" s="27">
-        <v>1.0898479220340611</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="E12" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="F12" s="27">
-        <v>7912471567.2096815</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="E13" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="F13" s="27">
-        <v>88952.074552590857</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D15" s="27" t="s">
+        <v>578</v>
+      </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="8:8" ht="15" x14ac:dyDescent="0.2">
@@ -47144,10 +47142,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -47158,53 +47156,57 @@
     <col min="4" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:3" ht="16" x14ac:dyDescent="0.15">
       <c r="B1" s="21" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="22" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="34"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="28"/>
       <c r="C6" s="35"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="27" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C9" s="27">
         <v>24057280.820478722</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C10" s="27">
         <v>0.95108737743161964</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F11" s="27" t="s">
-        <v>579</v>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="27" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="27" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
